--- a/results/I3_N5_M3_T30_C200_DepCentral_s0_P1_res.xlsx
+++ b/results/I3_N5_M3_T30_C200_DepCentral_s0_P1_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>870.0831571140574</v>
+        <v>822.8728587124742</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.0149998664855957</v>
+        <v>0.00800013542175293</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>18.39770858716315</v>
+        <v>17.05768396753712</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6.677845614195805</v>
+        <v>4.02175110787769</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3.78329414108774</v>
+        <v>3.836925852814985</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>795.0000000000024</v>
+        <v>598</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>59.58</v>
+        <v>208</v>
       </c>
     </row>
   </sheetData>
@@ -584,7 +584,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -689,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -700,7 +700,7 @@
         <v>0</v>
       </c>
       <c r="B4" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -711,7 +711,7 @@
         <v>1</v>
       </c>
       <c r="B5" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -722,7 +722,7 @@
         <v>2</v>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -733,7 +733,7 @@
         <v>3</v>
       </c>
       <c r="B7" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -755,7 +755,7 @@
         <v>5</v>
       </c>
       <c r="B9" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -824,7 +824,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -835,7 +835,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -846,7 +846,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -879,7 +879,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -929,7 +929,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>23.8863479000213</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4">
@@ -937,7 +937,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>20</v>
+        <v>23.8863479000213</v>
       </c>
     </row>
     <row r="5">
@@ -945,7 +945,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>22.37739353073907</v>
+        <v>12.37739353073907</v>
       </c>
     </row>
     <row r="6">
@@ -953,7 +953,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -961,7 +961,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>10</v>
+        <v>29.16274257244261</v>
       </c>
     </row>
     <row r="8">
@@ -985,7 +985,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>24.49989205841819</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -999,7 +999,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1031,10 +1031,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -1045,10 +1045,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C3" t="n">
         <v>2</v>
@@ -1059,10 +1059,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C4" t="n">
         <v>3</v>
@@ -1073,10 +1073,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C5" t="n">
         <v>4</v>
@@ -1087,10 +1087,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B6" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C6" t="n">
         <v>5</v>
@@ -1101,13 +1101,13 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D7" t="n">
         <v>1</v>
@@ -1115,13 +1115,13 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
         <v>1</v>
@@ -1129,13 +1129,13 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B9" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
         <v>1</v>
@@ -1143,15 +1143,29 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B10" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>5</v>
+      </c>
+      <c r="B11" t="n">
+        <v>6</v>
+      </c>
+      <c r="C11" t="n">
+        <v>5</v>
+      </c>
+      <c r="D11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1254,7 +1268,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>249.8050000000006</v>
+        <v>146</v>
       </c>
     </row>
     <row r="8">
@@ -1265,7 +1279,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>278.4250000000007</v>
+        <v>141</v>
       </c>
     </row>
     <row r="9">
@@ -1276,7 +1290,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>278.8300000000007</v>
+        <v>154</v>
       </c>
     </row>
     <row r="10">
@@ -1287,7 +1301,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>289.5250000000007</v>
+        <v>145</v>
       </c>
     </row>
     <row r="11">
@@ -1298,7 +1312,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>282.8700000000006</v>
+        <v>144</v>
       </c>
     </row>
     <row r="12">
@@ -1309,7 +1323,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>181.63</v>
+        <v>211</v>
       </c>
     </row>
     <row r="13">
@@ -1320,7 +1334,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>202.295</v>
+        <v>212</v>
       </c>
     </row>
     <row r="14">
@@ -1331,7 +1345,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>202.99</v>
+        <v>218</v>
       </c>
     </row>
     <row r="15">
@@ -1342,7 +1356,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>212.615</v>
+        <v>213</v>
       </c>
     </row>
     <row r="16">
@@ -1353,7 +1367,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>207.02</v>
+        <v>205</v>
       </c>
     </row>
     <row r="17">
@@ -1364,7 +1378,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>208.0599999999993</v>
+        <v>81</v>
       </c>
     </row>
     <row r="18">
@@ -1375,7 +1389,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>189.4349999999993</v>
+        <v>71</v>
       </c>
     </row>
     <row r="19">
@@ -1386,7 +1400,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>206.7149999999993</v>
+        <v>82</v>
       </c>
     </row>
     <row r="20">
@@ -1397,7 +1411,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>193.8399999999993</v>
+        <v>76</v>
       </c>
     </row>
     <row r="21">
@@ -1408,7 +1422,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>203.2699999999993</v>
+        <v>77</v>
       </c>
     </row>
     <row r="22">
@@ -1419,7 +1433,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>108.515</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23">
@@ -1430,7 +1444,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>96.91999999999997</v>
+        <v>29</v>
       </c>
     </row>
     <row r="24">
@@ -1441,7 +1455,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>106.645</v>
+        <v>33</v>
       </c>
     </row>
     <row r="25">
@@ -1452,7 +1466,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>103.745</v>
+        <v>32</v>
       </c>
     </row>
     <row r="26">
@@ -1463,7 +1477,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>100.49</v>
+        <v>31</v>
       </c>
     </row>
     <row r="27">
@@ -1474,7 +1488,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>70.22999999999979</v>
+        <v>254</v>
       </c>
     </row>
     <row r="28">
@@ -1485,7 +1499,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>80.22999999999978</v>
+        <v>259</v>
       </c>
     </row>
     <row r="29">
@@ -1496,7 +1510,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>86.27499999999978</v>
+        <v>270</v>
       </c>
     </row>
     <row r="30">
@@ -1507,7 +1521,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>87.40499999999977</v>
+        <v>264</v>
       </c>
     </row>
     <row r="31">
@@ -1518,7 +1532,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>84.38999999999977</v>
+        <v>252</v>
       </c>
     </row>
     <row r="32">
@@ -1529,7 +1543,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>249.8050000000006</v>
+        <v>254</v>
       </c>
     </row>
     <row r="33">
@@ -1540,7 +1554,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>278.4250000000007</v>
+        <v>259</v>
       </c>
     </row>
     <row r="34">
@@ -1551,7 +1565,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>278.8300000000007</v>
+        <v>270</v>
       </c>
     </row>
     <row r="35">
@@ -1562,7 +1576,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>289.5250000000007</v>
+        <v>264</v>
       </c>
     </row>
     <row r="36">
@@ -1573,7 +1587,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>282.8700000000006</v>
+        <v>252</v>
       </c>
     </row>
     <row r="37">
@@ -1639,7 +1653,7 @@
         <v>1</v>
       </c>
       <c r="C42" t="n">
-        <v>208.0599999999993</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -1650,7 +1664,7 @@
         <v>2</v>
       </c>
       <c r="C43" t="n">
-        <v>189.4349999999993</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -1661,7 +1675,7 @@
         <v>3</v>
       </c>
       <c r="C44" t="n">
-        <v>206.7149999999993</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -1672,7 +1686,7 @@
         <v>4</v>
       </c>
       <c r="C45" t="n">
-        <v>193.8399999999993</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -1683,7 +1697,7 @@
         <v>5</v>
       </c>
       <c r="C46" t="n">
-        <v>203.2699999999993</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1730,7 +1744,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>49.80500000000063</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3">
@@ -1741,7 +1755,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>78.42500000000069</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4">
@@ -1752,7 +1766,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>78.83000000000067</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5">
@@ -1763,7 +1777,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>89.52500000000066</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6">
@@ -1774,7 +1788,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>82.87000000000063</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7">
@@ -1840,7 +1854,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>8.059999999999309</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1862,7 +1876,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>6.714999999999309</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1884,7 +1898,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>3.269999999999309</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2041,7 +2055,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13">
@@ -2052,7 +2066,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14">
@@ -2063,7 +2077,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15">
@@ -2074,7 +2088,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16">
@@ -2085,7 +2099,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17">
@@ -2096,7 +2110,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18">
@@ -2107,7 +2121,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19">
@@ -2118,7 +2132,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="20">
@@ -2129,7 +2143,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21">
@@ -2140,7 +2154,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22">
@@ -2151,7 +2165,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>6.99</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2162,7 +2176,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>7.115</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2173,7 +2187,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>5.205</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2184,7 +2198,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>4.455</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2195,7 +2209,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>6.025</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2209,7 +2223,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2236,7 +2250,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -2247,7 +2261,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" t="n">
         <v>2</v>
@@ -2258,7 +2272,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B4" t="n">
         <v>3</v>
@@ -2269,7 +2283,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B5" t="n">
         <v>4</v>
@@ -2280,7 +2294,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B6" t="n">
         <v>5</v>
@@ -2291,10 +2305,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -2302,10 +2316,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -2313,10 +2327,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -2324,10 +2338,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C10" t="n">
         <v>1</v>
@@ -2335,34 +2349,12 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B11" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>3</v>
-      </c>
-      <c r="B12" t="n">
-        <v>3</v>
-      </c>
-      <c r="C12" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>3</v>
-      </c>
-      <c r="B13" t="n">
-        <v>5</v>
-      </c>
-      <c r="C13" t="n">
         <v>1</v>
       </c>
     </row>
